--- a/biology/Zoologie/Emydura/Emydura.xlsx
+++ b/biology/Zoologie/Emydura/Emydura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emydura est un genre de tortue de la famille des Chelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emydura est un genre de tortue de la famille des Chelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quatre espèces de ce genre se rencontrent en Australie et en Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quatre espèces de ce genre se rencontrent en Australie et en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces espèces sont reconnaissables par leurs plastrons chatoyant beaucoup plus marqué chez les jeunes. Elles peuvent atteindre environ 29 cm.
 Afin de différencier mâles et femelles, il faut comparer la taille de la queue : si elle est longue c'est un mâle, si elle est plus courte c'est une femelle.
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (20 mai 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (20 mai 2011) :
 Emydura macquarii (Gray, 1831)
 Emydura subglobosa (Krefft, 1876)
 Emydura tanybaraga Cann, 1997
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bonaparte, 1836 : Cheloniorum Tabula Analytica. Rome, p. 9.
 Gray, 1844 : Catalogue of the tortoises, crocodiles and amphisbaenians in the collection of the British Museum. Edward Newman, London (texte intégral).
